--- a/data/Bank/data_Add.xlsx
+++ b/data/Bank/data_Add.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Union</t>
+  </si>
+  <si>
+    <t>BOB</t>
   </si>
 </sst>
 </file>
@@ -350,6 +353,20 @@
         <v>1300.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35000.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27000.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
